--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/89_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/89_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rd501ad343141464f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rb5b8db9c99c64e03"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -239,7 +239,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rec2d404ce9e541d9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfe41da12d6eb43b9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -350,6 +350,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1b85feca750345cd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra93bcc9e745148ae"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/89_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/89_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rb5b8db9c99c64e03"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R1ffa9efabfb745ff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -148,6 +148,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:lineChart>
@@ -239,7 +247,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfe41da12d6eb43b9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9d7e7b36094b44bf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -350,6 +358,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra93bcc9e745148ae"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0c6862107aee4290"/>
 </x:worksheet>
 </file>